--- a/biology/Botanique/Polypodium_glycyrrhiza/Polypodium_glycyrrhiza.xlsx
+++ b/biology/Botanique/Polypodium_glycyrrhiza/Polypodium_glycyrrhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Polypode réglisse (Polypodium glycyrrhiza) est une espèce de fougères à feuillage permanent originaire du nord-ouest de l'Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fougère est principalement présente de la Californie à l'Alaska dans les régions proches de l'océan Pacifique[2]. On la trouve dans des zones humides à des altitudes inférieures à 600 mètres. Elle est par exemple présente au sein du parc national Olympique[3]. Plante épiphyte, elle pousse sur des branches et des troncs d'arbres, comme sur l'Érable à grandes feuilles. La fougère pousse toutefois aussi dans des lieux humides au niveau du sol.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fougère est principalement présente de la Californie à l'Alaska dans les régions proches de l'océan Pacifique. On la trouve dans des zones humides à des altitudes inférieures à 600 mètres. Elle est par exemple présente au sein du parc national Olympique. Plante épiphyte, elle pousse sur des branches et des troncs d'arbres, comme sur l'Érable à grandes feuilles. La fougère pousse toutefois aussi dans des lieux humides au niveau du sol.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fougère possède un rhizome qui a un goût de réglisse. Certains amérindiens des tribus Shishalh, Comox, Nuxalk, Haida et Kwakwaka'wakw utilisaient d'ailleurs ce dernier en tant que gomme à mâcher. Le rhizome était aussi utilisé pour traiter le rhume et la pharyngite[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fougère possède un rhizome qui a un goût de réglisse. Certains amérindiens des tribus Shishalh, Comox, Nuxalk, Haida et Kwakwaka'wakw utilisaient d'ailleurs ce dernier en tant que gomme à mâcher. Le rhizome était aussi utilisé pour traiter le rhume et la pharyngite.
 La fougère se reproduit en disséminant les spores disposées sous ses feuilles. Ces dernières peuvent alors donner vie à de nouvelles plantes si elles se déposent dans des milieux assez humides et doux.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est cultivée. Elle peut s'hybrider avec Polypodium californicum et donne alors naissance à Polypodium calirhiza qui est elle aussi cultivée.
 </t>
@@ -605,9 +623,11 @@
           <t>Composé actif</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une saponine au goût sucré, la polypodoside A, a été découverte dans le rhizome. Elle possède un pouvoir sucrant de 600 (comparé à une solution de saccharose à 6 %)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une saponine au goût sucré, la polypodoside A, a été découverte dans le rhizome. Elle possède un pouvoir sucrant de 600 (comparé à une solution de saccharose à 6 %).
 </t>
         </is>
       </c>
